--- a/processed_data/handcoded_cleaned/Babylab_WesternSydney_6-9m_mono_GF_Trial.xlsx
+++ b/processed_data/handcoded_cleaned/Babylab_WesternSydney_6-9m_mono_GF_Trial.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21301"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D7E7C8-C2EA-4343-9C64-349A76C17CAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="16275" windowHeight="8250" tabRatio="346" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="100" windowWidth="31860" windowHeight="16140" tabRatio="346"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +14,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$109</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="73">
   <si>
     <t>lab</t>
   </si>
@@ -47,16 +49,10 @@
     <t>first_shift</t>
   </si>
   <si>
-    <t>Latency</t>
-  </si>
-  <si>
     <t>n_shift_congruent</t>
   </si>
   <si>
     <t>n_shift_incongruent</t>
-  </si>
-  <si>
-    <t>fixation_congrent</t>
   </si>
   <si>
     <t>fixation_incongruent</t>
@@ -257,8 +253,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,7 +428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,27 +653,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="148" zoomScaleNormal="148" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="148" zoomScaleNormal="148" zoomScalePageLayoutView="148" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="10" max="11" width="9.140625" style="4"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="4"/>
-    <col min="18" max="18" width="9.140625" style="4"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="4"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="4"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="4"/>
+    <col min="18" max="18" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5">
+    <row r="1" spans="1:14" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,33 +695,33 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>8738</v>
@@ -732,13 +730,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="6">
         <v>1.3360000000000001</v>
@@ -756,15 +754,15 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>8738</v>
@@ -773,13 +771,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6">
         <v>1.873</v>
@@ -797,15 +795,15 @@
         <v>1.262</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>8738</v>
@@ -814,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6">
         <v>2.6669999999999998</v>
@@ -838,15 +836,15 @@
         <v>1.8859999999999999</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>8738</v>
@@ -855,13 +853,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6">
         <v>2.6419999999999999</v>
@@ -879,15 +877,15 @@
         <v>0.221</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>8738</v>
@@ -896,13 +894,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5">
         <v>4.6150000000000002</v>
@@ -920,15 +918,15 @@
         <v>0.43</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>8738</v>
@@ -937,13 +935,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="6">
         <v>2.4430000000000001</v>
@@ -961,15 +959,15 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>8688</v>
@@ -978,13 +976,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="6">
         <v>0.81599999999999995</v>
@@ -1002,15 +1000,15 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>8688</v>
@@ -1019,13 +1017,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="6">
         <v>0.65</v>
@@ -1043,15 +1041,15 @@
         <v>1.4219999999999999</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>8688</v>
@@ -1060,13 +1058,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="6">
         <v>1.7769999999999999</v>
@@ -1084,15 +1082,15 @@
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>8688</v>
@@ -1101,13 +1099,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="6">
         <v>4.3259999999999996</v>
@@ -1125,15 +1123,15 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>8688</v>
@@ -1142,13 +1140,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="6">
         <v>1.831</v>
@@ -1166,15 +1164,15 @@
         <v>0.41799999999999998</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>8688</v>
@@ -1183,13 +1181,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="6">
         <v>1.4590000000000001</v>
@@ -1207,15 +1205,15 @@
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>8573</v>
@@ -1224,13 +1222,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -1248,15 +1246,15 @@
         <v>0.92</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>8573</v>
@@ -1265,13 +1263,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="6">
         <v>0.32300000000000001</v>
@@ -1289,15 +1287,15 @@
         <v>4.18</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>8573</v>
@@ -1306,13 +1304,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" s="6">
         <v>1.6779999999999999</v>
@@ -1330,15 +1328,15 @@
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>8573</v>
@@ -1347,13 +1345,13 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G17" s="6">
         <v>0.82</v>
@@ -1371,15 +1369,15 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>8573</v>
@@ -1388,13 +1386,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -1412,15 +1410,15 @@
         <v>3.27</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
         <v>8573</v>
@@ -1429,13 +1427,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G19" s="6">
         <v>1.8340000000000001</v>
@@ -1453,15 +1451,15 @@
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1">
         <v>8524</v>
@@ -1470,13 +1468,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -1494,16 +1492,16 @@
         <v>2.5790000000000002</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>8524</v>
@@ -1512,13 +1510,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" s="6">
         <v>2.7429999999999999</v>
@@ -1536,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
         <v>8524</v>
@@ -1554,13 +1552,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -1578,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1">
         <v>8524</v>
@@ -1596,16 +1594,16 @@
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1620,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>8524</v>
@@ -1638,13 +1636,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1">
         <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G24" s="6">
         <v>1.4379999999999999</v>
@@ -1662,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1">
         <v>8524</v>
@@ -1680,13 +1678,13 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1">
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" s="6">
         <v>1.472</v>
@@ -1704,16 +1702,16 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1">
         <v>8523</v>
@@ -1722,13 +1720,13 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26" s="6">
         <v>1.2170000000000001</v>
@@ -1746,16 +1744,16 @@
         <v>3.8580000000000001</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1">
         <v>8523</v>
@@ -1764,13 +1762,13 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G27" s="6">
         <v>1.1599999999999999</v>
@@ -1788,15 +1786,15 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1">
         <v>8523</v>
@@ -1805,13 +1803,13 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G28" s="6">
         <v>1.18</v>
@@ -1829,15 +1827,15 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1">
         <v>8523</v>
@@ -1846,13 +1844,13 @@
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G29" s="6">
         <v>1.5589999999999999</v>
@@ -1870,15 +1868,15 @@
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1">
         <v>8523</v>
@@ -1887,13 +1885,13 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G30" s="6">
         <v>2.0920000000000001</v>
@@ -1911,15 +1909,15 @@
         <v>0</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1">
         <v>8523</v>
@@ -1928,13 +1926,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" s="1">
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G31" s="6">
         <v>1.2330000000000001</v>
@@ -1952,15 +1950,15 @@
         <v>1.8240000000000001</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1">
         <v>8519</v>
@@ -1969,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G32" s="6">
         <v>0.95599999999999996</v>
@@ -1993,15 +1991,15 @@
         <v>0</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1">
         <v>8519</v>
@@ -2010,13 +2008,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G33" s="6">
         <v>2.504</v>
@@ -2034,15 +2032,15 @@
         <v>1.0389999999999999</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1">
         <v>8519</v>
@@ -2051,13 +2049,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G34" s="6">
         <v>1.5209999999999999</v>
@@ -2075,15 +2073,15 @@
         <v>2.0979999999999999</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1">
         <v>8519</v>
@@ -2092,13 +2090,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E35" s="1">
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G35" s="6">
         <v>1.772</v>
@@ -2116,15 +2114,15 @@
         <v>0</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1">
         <v>8519</v>
@@ -2133,13 +2131,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G36" s="6">
         <v>2.2120000000000002</v>
@@ -2157,15 +2155,15 @@
         <v>1.32</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1">
         <v>8519</v>
@@ -2174,13 +2172,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E37" s="1">
         <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37" s="6">
         <v>0.63</v>
@@ -2198,15 +2196,15 @@
         <v>2.0270000000000001</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1">
         <v>8462</v>
@@ -2215,13 +2213,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38" s="7">
         <v>1.393</v>
@@ -2239,15 +2237,15 @@
         <v>2.4239999999999999</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1">
         <v>8462</v>
@@ -2256,16 +2254,16 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2280,15 +2278,15 @@
         <v>0</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1">
         <v>8462</v>
@@ -2297,13 +2295,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G40" s="7">
         <v>4.016</v>
@@ -2321,15 +2319,15 @@
         <v>0</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1">
         <v>8462</v>
@@ -2338,13 +2336,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1">
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G41" s="7">
         <v>2.0179999999999998</v>
@@ -2362,15 +2360,15 @@
         <v>0</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="1">
         <v>8462</v>
@@ -2379,16 +2377,16 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2403,15 +2401,15 @@
         <v>0</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1">
         <v>8462</v>
@@ -2420,13 +2418,13 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E43" s="1">
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G43" s="7">
         <v>1.9990000000000001</v>
@@ -2444,15 +2442,15 @@
         <v>0</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1">
         <v>8457</v>
@@ -2461,13 +2459,13 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G44" s="7">
         <v>1.5129999999999999</v>
@@ -2485,15 +2483,15 @@
         <v>1.3839999999999999</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1">
         <v>8457</v>
@@ -2502,13 +2500,13 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
@@ -2526,15 +2524,15 @@
         <v>0</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1">
         <v>8457</v>
@@ -2543,13 +2541,13 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G46" s="7">
         <v>1.5349999999999999</v>
@@ -2567,15 +2565,15 @@
         <v>0.44800000000000001</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1">
         <v>8457</v>
@@ -2584,13 +2582,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E47" s="1">
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G47" s="7">
         <v>0.52</v>
@@ -2608,15 +2606,15 @@
         <v>0</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1">
         <v>8457</v>
@@ -2625,13 +2623,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G48" s="7">
         <v>1.53</v>
@@ -2649,15 +2647,15 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1">
         <v>8457</v>
@@ -2666,16 +2664,16 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E49" s="1">
         <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2690,15 +2688,15 @@
         <v>0</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>8444</v>
@@ -2707,13 +2705,13 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G50" s="7">
         <v>3.2959999999999998</v>
@@ -2731,15 +2729,15 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>8444</v>
@@ -2748,13 +2746,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G51" s="7">
         <v>3.5009999999999999</v>
@@ -2772,15 +2770,15 @@
         <v>0</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1">
         <v>8444</v>
@@ -2789,13 +2787,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G52" s="7">
         <v>5.1840000000000002</v>
@@ -2813,15 +2811,15 @@
         <v>0</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1">
         <v>8444</v>
@@ -2830,13 +2828,13 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E53" s="1">
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G53" s="7">
         <v>1.8819999999999999</v>
@@ -2854,15 +2852,15 @@
         <v>0</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1">
         <v>8444</v>
@@ -2871,13 +2869,13 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E54" s="1">
         <v>5</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G54" s="7">
         <v>2.302</v>
@@ -2895,15 +2893,15 @@
         <v>0.55700000000000005</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55" s="1">
         <v>8444</v>
@@ -2912,13 +2910,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E55" s="1">
         <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G55" s="7">
         <v>1.952</v>
@@ -2936,15 +2934,15 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1">
         <v>8415</v>
@@ -2953,13 +2951,13 @@
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G56" s="7">
         <v>0</v>
@@ -2977,15 +2975,15 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1">
         <v>8415</v>
@@ -2994,13 +2992,13 @@
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G57" s="7">
         <v>3.64</v>
@@ -3018,15 +3016,15 @@
         <v>0.87</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1">
         <v>8415</v>
@@ -3035,13 +3033,13 @@
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G58" s="7">
         <v>0</v>
@@ -3059,15 +3057,15 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1">
         <v>8415</v>
@@ -3076,13 +3074,13 @@
         <v>2</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E59" s="1">
         <v>4</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G59" s="7">
         <v>1.4890000000000001</v>
@@ -3100,15 +3098,15 @@
         <v>1.3460000000000001</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1">
         <v>8415</v>
@@ -3117,13 +3115,13 @@
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E60" s="1">
         <v>5</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G60" s="7">
         <v>1.3049999999999999</v>
@@ -3141,15 +3139,15 @@
         <v>0</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1">
         <v>8415</v>
@@ -3158,13 +3156,13 @@
         <v>2</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E61" s="1">
         <v>6</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G61" s="7">
         <v>0</v>
@@ -3182,15 +3180,15 @@
         <v>1.907</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B62" s="1">
         <v>8339</v>
@@ -3199,13 +3197,13 @@
         <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G62" s="7">
         <v>3.3730000000000002</v>
@@ -3223,15 +3221,15 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B63" s="1">
         <v>8339</v>
@@ -3240,13 +3238,13 @@
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G63" s="7">
         <v>1.5620000000000001</v>
@@ -3264,15 +3262,15 @@
         <v>0</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B64" s="1">
         <v>8339</v>
@@ -3281,13 +3279,13 @@
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G64" s="7">
         <v>1.665</v>
@@ -3305,15 +3303,15 @@
         <v>0</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1">
         <v>8339</v>
@@ -3322,13 +3320,13 @@
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E65" s="1">
         <v>4</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G65" s="7">
         <v>2.0299999999999998</v>
@@ -3346,15 +3344,15 @@
         <v>0</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B66" s="1">
         <v>8339</v>
@@ -3363,13 +3361,13 @@
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E66" s="1">
         <v>5</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G66" s="7">
         <v>4.2080000000000002</v>
@@ -3387,15 +3385,15 @@
         <v>0</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1">
         <v>8339</v>
@@ -3404,13 +3402,13 @@
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E67" s="1">
         <v>6</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G67" s="7">
         <v>2.1669999999999998</v>
@@ -3428,15 +3426,15 @@
         <v>0</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B68" s="1">
         <v>8272</v>
@@ -3445,16 +3443,16 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3469,15 +3467,15 @@
         <v>0</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1">
         <v>8272</v>
@@ -3486,13 +3484,13 @@
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G69" s="7">
         <v>2.5339999999999998</v>
@@ -3510,15 +3508,15 @@
         <v>0</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1">
         <v>8272</v>
@@ -3527,13 +3525,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E70" s="1">
         <v>3</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G70" s="7">
         <v>1.38</v>
@@ -3551,15 +3549,15 @@
         <v>0</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B71" s="1">
         <v>8272</v>
@@ -3568,16 +3566,16 @@
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E71" s="1">
         <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -3592,15 +3590,15 @@
         <v>0</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B72" s="1">
         <v>8272</v>
@@ -3609,13 +3607,13 @@
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E72" s="1">
         <v>5</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G72" s="7">
         <v>1.819</v>
@@ -3633,15 +3631,15 @@
         <v>0</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1">
         <v>8272</v>
@@ -3650,13 +3648,13 @@
         <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E73" s="1">
         <v>6</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G73" s="7">
         <v>0</v>
@@ -3674,15 +3672,15 @@
         <v>2.4430000000000001</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B74" s="1">
         <v>8259</v>
@@ -3691,13 +3689,13 @@
         <v>4</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G74" s="7">
         <v>4.3710000000000004</v>
@@ -3715,15 +3713,15 @@
         <v>0</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B75" s="1">
         <v>8259</v>
@@ -3732,13 +3730,13 @@
         <v>4</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E75" s="1">
         <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G75" s="7">
         <v>4.3410000000000002</v>
@@ -3756,15 +3754,15 @@
         <v>0</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B76" s="1">
         <v>8259</v>
@@ -3773,13 +3771,13 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G76" s="7">
         <v>4.4610000000000003</v>
@@ -3797,15 +3795,15 @@
         <v>0.34</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B77" s="1">
         <v>8259</v>
@@ -3814,13 +3812,13 @@
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E77" s="1">
         <v>4</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G77" s="7">
         <v>4.3650000000000002</v>
@@ -3838,15 +3836,15 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B78" s="1">
         <v>8259</v>
@@ -3855,13 +3853,13 @@
         <v>4</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E78" s="1">
         <v>5</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G78" s="7">
         <v>3.71</v>
@@ -3879,15 +3877,15 @@
         <v>1.1140000000000001</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B79" s="1">
         <v>8259</v>
@@ -3896,13 +3894,13 @@
         <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E79" s="1">
         <v>6</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G79" s="7">
         <v>2.6339999999999999</v>
@@ -3920,15 +3918,15 @@
         <v>0</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B80" s="1">
         <v>8253</v>
@@ -3937,13 +3935,13 @@
         <v>4</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G80" s="7">
         <v>2.2930000000000001</v>
@@ -3961,15 +3959,15 @@
         <v>1.65</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B81" s="1">
         <v>8253</v>
@@ -3978,13 +3976,13 @@
         <v>4</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E81" s="1">
         <v>2</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G81" s="7">
         <v>0.67300000000000004</v>
@@ -4002,15 +4000,15 @@
         <v>0.49</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B82" s="1">
         <v>8253</v>
@@ -4019,13 +4017,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G82" s="7">
         <v>2.6739999999999999</v>
@@ -4043,15 +4041,15 @@
         <v>0</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B83" s="1">
         <v>8253</v>
@@ -4060,13 +4058,13 @@
         <v>4</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E83" s="1">
         <v>4</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G83" s="7">
         <v>3.2450000000000001</v>
@@ -4084,15 +4082,15 @@
         <v>1.579</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B84" s="1">
         <v>8253</v>
@@ -4101,13 +4099,13 @@
         <v>4</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E84" s="1">
         <v>5</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G84" s="7">
         <v>3.1320000000000001</v>
@@ -4125,15 +4123,15 @@
         <v>0</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B85" s="1">
         <v>8253</v>
@@ -4142,16 +4140,16 @@
         <v>4</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E85" s="1">
         <v>6</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -4166,15 +4164,15 @@
         <v>0</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B86" s="1">
         <v>8204</v>
@@ -4183,13 +4181,13 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G86" s="7">
         <v>2.5830000000000002</v>
@@ -4207,15 +4205,15 @@
         <v>0</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B87" s="1">
         <v>8204</v>
@@ -4224,13 +4222,13 @@
         <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E87" s="1">
         <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G87" s="7">
         <v>1.794</v>
@@ -4248,15 +4246,15 @@
         <v>1.163</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1">
         <v>8204</v>
@@ -4265,13 +4263,13 @@
         <v>2</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E88" s="1">
         <v>3</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G88" s="7">
         <v>2.6419999999999999</v>
@@ -4289,15 +4287,15 @@
         <v>1.036</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B89" s="1">
         <v>8204</v>
@@ -4306,13 +4304,13 @@
         <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E89" s="1">
         <v>4</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G89" s="7">
         <v>1.9990000000000001</v>
@@ -4330,15 +4328,15 @@
         <v>0.66500000000000004</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B90" s="1">
         <v>8204</v>
@@ -4347,13 +4345,13 @@
         <v>2</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E90" s="1">
         <v>5</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G90" s="7">
         <v>1.2749999999999999</v>
@@ -4371,15 +4369,15 @@
         <v>1.167</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B91" s="1">
         <v>8204</v>
@@ -4388,13 +4386,13 @@
         <v>2</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E91" s="1">
         <v>6</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G91" s="7">
         <v>1.381</v>
@@ -4412,15 +4410,15 @@
         <v>0.73099999999999998</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B92" s="1">
         <v>8196</v>
@@ -4429,13 +4427,13 @@
         <v>4</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G92" s="7">
         <v>0</v>
@@ -4453,15 +4451,15 @@
         <v>3.33</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B93" s="1">
         <v>8196</v>
@@ -4470,13 +4468,13 @@
         <v>4</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E93" s="1">
         <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G93" s="7">
         <v>3.8090000000000002</v>
@@ -4494,15 +4492,15 @@
         <v>0</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B94" s="1">
         <v>8196</v>
@@ -4511,13 +4509,13 @@
         <v>4</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G94" s="7">
         <v>3.9060000000000001</v>
@@ -4535,15 +4533,15 @@
         <v>0</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B95" s="1">
         <v>8196</v>
@@ -4552,13 +4550,13 @@
         <v>4</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E95" s="1">
         <v>4</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G95" s="7">
         <v>2.4409999999999998</v>
@@ -4576,15 +4574,15 @@
         <v>0</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B96" s="1">
         <v>8196</v>
@@ -4593,13 +4591,13 @@
         <v>4</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E96" s="1">
         <v>5</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G96" s="7">
         <v>1.4059999999999999</v>
@@ -4617,15 +4615,15 @@
         <v>0.51</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B97" s="1">
         <v>8196</v>
@@ -4634,13 +4632,13 @@
         <v>4</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E97" s="1">
         <v>6</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G97" s="7">
         <v>1.4890000000000001</v>
@@ -4658,15 +4656,15 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B98" s="1">
         <v>8168</v>
@@ -4675,13 +4673,13 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G98" s="7">
         <v>2.4340000000000002</v>
@@ -4699,15 +4697,15 @@
         <v>0</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B99" s="1">
         <v>8168</v>
@@ -4716,13 +4714,13 @@
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E99" s="1">
         <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G99" s="7">
         <v>3.7749999999999999</v>
@@ -4740,15 +4738,15 @@
         <v>0</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B100" s="1">
         <v>8168</v>
@@ -4757,13 +4755,13 @@
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G100" s="7">
         <v>2.6120000000000001</v>
@@ -4781,15 +4779,15 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B101" s="1">
         <v>8168</v>
@@ -4798,13 +4796,13 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E101" s="1">
         <v>4</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G101" s="7">
         <v>3.0910000000000002</v>
@@ -4822,15 +4820,15 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B102" s="1">
         <v>8168</v>
@@ -4839,13 +4837,13 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E102" s="1">
         <v>5</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G102" s="7">
         <v>4.7329999999999997</v>
@@ -4863,15 +4861,15 @@
         <v>0</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B103" s="1">
         <v>8168</v>
@@ -4880,13 +4878,13 @@
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E103" s="1">
         <v>6</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G103" s="7">
         <v>1.5620000000000001</v>
@@ -4904,15 +4902,15 @@
         <v>2.88</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B104" s="1">
         <v>8156</v>
@@ -4921,13 +4919,13 @@
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G104" s="7">
         <v>1.5069999999999999</v>
@@ -4945,15 +4943,15 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B105" s="1">
         <v>8156</v>
@@ -4962,13 +4960,13 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E105" s="1">
         <v>2</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G105" s="7">
         <v>3.58</v>
@@ -4986,15 +4984,15 @@
         <v>0</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B106" s="1">
         <v>8156</v>
@@ -5003,13 +5001,13 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G106" s="7">
         <v>3.2949999999999999</v>
@@ -5027,15 +5025,15 @@
         <v>0.6</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B107" s="1">
         <v>8156</v>
@@ -5044,16 +5042,16 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E107" s="1">
         <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
@@ -5068,15 +5066,15 @@
         <v>0</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B108" s="1">
         <v>8156</v>
@@ -5085,13 +5083,13 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E108" s="1">
         <v>5</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G108" s="7">
         <v>3.5830000000000002</v>
@@ -5109,15 +5107,15 @@
         <v>0</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B109" s="1">
         <v>8156</v>
@@ -5126,13 +5124,13 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E109" s="1">
         <v>6</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G109" s="7">
         <v>4.2649999999999997</v>
@@ -5150,15 +5148,15 @@
         <v>0</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B110" s="9">
         <v>2062</v>
@@ -5167,13 +5165,13 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G110" s="8">
         <v>1.0089999999999999</v>
@@ -5191,15 +5189,15 @@
         <v>1.03</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B111" s="9">
         <v>2062</v>
@@ -5208,13 +5206,13 @@
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E111" s="1">
         <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G111" s="7">
         <v>0.45400000000000001</v>
@@ -5232,15 +5230,15 @@
         <v>0</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B112" s="9">
         <v>2062</v>
@@ -5249,13 +5247,13 @@
         <v>1</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E112" s="1">
         <v>3</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G112" s="7">
         <v>0</v>
@@ -5273,15 +5271,15 @@
         <v>0</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B113" s="9">
         <v>2062</v>
@@ -5290,16 +5288,16 @@
         <v>1</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
@@ -5314,15 +5312,15 @@
         <v>0</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B114" s="9">
         <v>2062</v>
@@ -5331,13 +5329,13 @@
         <v>1</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E114" s="1">
         <v>5</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G114" s="7">
         <v>5.1950000000000003</v>
@@ -5355,15 +5353,15 @@
         <v>0</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="14.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B115" s="9">
         <v>2062</v>
@@ -5372,13 +5370,13 @@
         <v>1</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E115" s="1">
         <v>6</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G115" s="7">
         <v>0</v>
@@ -5396,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -5493,47 +5491,52 @@
       <c r="M121" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N109" xr:uid="{E858C52D-A077-47BA-8D54-EF00E7C5AF0E}"/>
+  <autoFilter ref="A1:N109"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5541,13 +5544,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5555,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5569,13 +5572,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5583,13 +5586,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5597,13 +5600,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5611,111 +5614,121 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>